--- a/InsidesApp/Insightsapp Buglist.xlsx
+++ b/InsidesApp/Insightsapp Buglist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEA5E19-FAF2-4E81-8878-6C6DEDAD2547}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67934F4-44C2-4C81-9404-3349F364F04E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -44,7 +44,49 @@
     <t>Der Fragebogenname "Versuchspersonencode" ist zu lang</t>
   </si>
   <si>
-    <t>Name zu Vpncode ändern</t>
+    <t>Es fehlen Antwortmöglichkeiten bei "Abschluss"</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>"Einstellunguen bearbeiten" bei Variante 1 und 
+"Einstelunng ändern" bei Variante 2</t>
+  </si>
+  <si>
+    <t>Einleiutungstext prägnanter machen, weil man sonst 
+direkt mit den Fragen beginnt</t>
+  </si>
+  <si>
+    <t>Fragebögen sind nicht unter "Fragebögen" verfügbar
+Mail an Christian senden?</t>
+  </si>
+  <si>
+    <t>Antworten nur mit Ziffern sind komisch</t>
+  </si>
+  <si>
+    <t>Alter Text bei "Wenn ich online bin…."</t>
+  </si>
+  <si>
+    <t>"Mir gemeinsame Unternehmungen mit neuen Bekannten,
+die ich interessant finde…."  Frage in Kombination mit 
+Antwortmöglichkeiten ist komisch</t>
+  </si>
+  <si>
+    <t>Name zu Probandencode ändern</t>
+  </si>
+  <si>
+    <t>Oben block mit Instruktion und unter diesen block mit Fragen</t>
+  </si>
+  <si>
+    <t>Wie genau tracken</t>
+  </si>
+  <si>
+    <t>Fragebögen beenden führt manchmal dazu, dass sich die App schließt
+Mail an Christian</t>
+  </si>
+  <si>
+    <t>GPS ist optional</t>
   </si>
 </sst>
 </file>
@@ -383,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +468,85 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/InsidesApp/Insightsapp Buglist.xlsx
+++ b/InsidesApp/Insightsapp Buglist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67934F4-44C2-4C81-9404-3349F364F04E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB86162-01C7-43A2-AFD7-1EB3397329AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +117,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,13 +162,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -427,18 +464,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
-    <col min="3" max="3" width="55.5546875" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -449,103 +486,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
     </row>

--- a/InsidesApp/Insightsapp Buglist.xlsx
+++ b/InsidesApp/Insightsapp Buglist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB86162-01C7-43A2-AFD7-1EB3397329AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F642C864-BB0A-4416-A484-D0D722C44ECF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
